--- a/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
+++ b/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,182 +384,302 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P_19285751</t>
+          <t>P_1057020</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>E84.0</t>
+          <t>E70.0</t>
         </is>
       </c>
       <c r="C2">
-        <v>587</v>
+        <v>79254</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E84.0 - 587  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Relation  E70.0 - 79254  ist im BfArM nicht vorhanden </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P_19285752</t>
+          <t>P_1057020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E84.8</t>
+          <t>E70.0</t>
         </is>
       </c>
       <c r="C3">
-        <v>586</v>
+        <v>79254</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Relation  E84.8 - 586  ist im BfArM nicht vorhanden</t>
+          <t xml:space="preserve">Relation  E70.0 - 79254  ist im BfArM nicht vorhanden </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P_19285753</t>
+          <t>P_1695115</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E84.8</t>
+          <t>E70.0</t>
         </is>
       </c>
       <c r="C4">
-        <v>587</v>
+        <v>79254</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Kodierung  E84.8  ist im BfArm-Mapping nicht enthalten </t>
+          <t xml:space="preserve">Relation  E70.0 - 79254  ist im BfArM nicht vorhanden </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P_19285754</t>
+          <t>P_1695115</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>E85.0</t>
+          <t>E70.0</t>
         </is>
       </c>
       <c r="C5">
-        <v>586</v>
+        <v>79254</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E85.0 - 586  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Relation  E70.0 - 79254  ist im BfArM nicht vorhanden </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P_19285755</t>
+          <t>P_1897170</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>E75.2</t>
+          <t>E70.0</t>
         </is>
       </c>
       <c r="C6">
-        <v>325</v>
+        <v>79254</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E75.2 - 325  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Relation  E70.0 - 79254  ist im BfArM nicht vorhanden </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P_19285756</t>
+          <t>P_1897170</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>E75.2</t>
+          <t>E70.0</t>
         </is>
       </c>
       <c r="C7">
-        <v>320</v>
+        <v>79254</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E75.2 - 320  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Relation  E70.0 - 79254  ist im BfArM nicht vorhanden </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P_19285757</t>
+          <t>P_19285751</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>E84.0</t>
         </is>
       </c>
       <c r="C8">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlendes ICD10 Code  </t>
+          <t xml:space="preserve">Relation  E84.0 - 587  ist im BfArM nicht vorhanden </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P_19285758</t>
+          <t>P_19285752</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>E84.8</t>
         </is>
       </c>
       <c r="C9">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orpha Kodierung  587  ist im BfArM-Mapping nicht enthalten Fehlendes ICD10 Code  </t>
+          <t>Relation  E84.8 - 586  ist im BfArM nicht vorhanden</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P_19285759</t>
+          <t>P_19285753</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>E75.2</t>
-        </is>
+          <t>E84.8</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>587</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10-Kodierung nicht eindeutig E75.2 </t>
+          <t xml:space="preserve">ICD10 Kodierung  E84.8  ist im BfArm-Mapping nicht enthalten </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>P_19285754</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>E85.0</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>586</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relation  E85.0 - 586  ist im BfArM nicht vorhanden </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P_19285755</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>E75.2</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>325</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relation  E75.2 - 325  ist im BfArM nicht vorhanden </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P_19285756</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>E75.2</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>320</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relation  E75.2 - 320  ist im BfArM nicht vorhanden </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P_19285757</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>586</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fehlendes ICD10 Code  </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P_19285758</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>587</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orpha Kodierung  587  ist im BfArM-Mapping nicht enthalten Fehlendes ICD10 Code  </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>P_19285759</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>E75.2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ICD10-Kodierung nicht eindeutig E75.2 </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P_19285759</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>E84.0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t xml:space="preserve">ICD10-Kodierung nicht eindeutig E84.0 </t>
         </is>
@@ -572,7 +692,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -591,17 +711,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>K2_completness_rate</t>
+          <t>completness_rate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>K2_OrphaCoding_completeness</t>
+          <t>orphaCoding_completeness</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>K3_uniqueness_rate</t>
+          <t>uniqueness_rate</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>icdRd_no</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pt_no</t>
         </is>
       </c>
     </row>
@@ -621,7 +751,13 @@
         <v>94.44</v>
       </c>
       <c r="E2">
-        <v>98.59999999999999</v>
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F2">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
+++ b/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,132 +384,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P_1057020</t>
+          <t>P_19285751</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>E70.0</t>
+          <t>E84.0</t>
         </is>
       </c>
       <c r="C2">
-        <v>79254</v>
+        <v>587</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E70.0 - 79254  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Relation  E84.0 - 587  ist im BfArM nicht vorhanden </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P_1057020</t>
+          <t>P_19285753</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E70.0</t>
+          <t>E84.80</t>
         </is>
       </c>
       <c r="C3">
-        <v>79254</v>
+        <v>587</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E70.0 - 79254  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Relation  E84.80 - 587  ist im BfArM nicht vorhanden </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P_1695115</t>
+          <t>P_19285754</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E70.0</t>
+          <t>E85.0</t>
         </is>
       </c>
       <c r="C4">
-        <v>79254</v>
+        <v>586</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E70.0 - 79254  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Relation  E85.0 - 586  ist im BfArM nicht vorhanden </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P_1695115</t>
+          <t>P_19285755</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>E70.0</t>
+          <t>E75.2</t>
         </is>
       </c>
       <c r="C5">
-        <v>79254</v>
+        <v>325</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E70.0 - 79254  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Relation  E75.2 - 325  ist im BfArM nicht vorhanden </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P_1897170</t>
+          <t>P_19285756</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>E70.0</t>
+          <t>E75.2</t>
         </is>
       </c>
       <c r="C6">
-        <v>79254</v>
+        <v>320</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E70.0 - 79254  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Relation  E75.2 - 320  ist im BfArM nicht vorhanden </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P_1897170</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>E70.0</t>
+          <t>P_19285757</t>
         </is>
       </c>
       <c r="C7">
-        <v>79254</v>
+        <v>586</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E70.0 - 79254  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Fehlendes ICD10 Code  </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P_19285751</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>E84.0</t>
+          <t>P_19285758</t>
         </is>
       </c>
       <c r="C8">
@@ -517,171 +507,58 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E84.0 - 587  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Orpha Kodierung  587  ist im BfArM-Mapping nicht enthalten Fehlendes ICD10 Code  </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P_19285752</t>
+          <t>P_19285759</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>E84.8</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>586</v>
+          <t>E75.2</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Relation  E84.8 - 586  ist im BfArM nicht vorhanden</t>
+          <t xml:space="preserve">ICD10-Kodierung nicht eindeutig E75.2 Fehlendes Orpha_Kode  </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P_19285753</t>
+          <t>P_19285759</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>E84.8</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>587</v>
+          <t>E84.0</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Kodierung  E84.8  ist im BfArm-Mapping nicht enthalten </t>
+          <t xml:space="preserve">Fehlendes Orpha_Kode  </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P_19285754</t>
+          <t>P_19285759</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>E85.0</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>586</v>
+          <t>D45</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E85.0 - 586  ist im BfArM nicht vorhanden </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>P_19285755</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>E75.2</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>325</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relation  E75.2 - 325  ist im BfArM nicht vorhanden </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>P_19285756</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>E75.2</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>320</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relation  E75.2 - 320  ist im BfArM nicht vorhanden </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>P_19285757</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>586</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fehlendes ICD10 Code  </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>P_19285758</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>587</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orpha Kodierung  587  ist im BfArM-Mapping nicht enthalten Fehlendes ICD10 Code  </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>P_19285759</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>E75.2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ICD10-Kodierung nicht eindeutig E75.2 </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>P_19285759</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>E84.0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ICD10-Kodierung nicht eindeutig E84.0 </t>
+          <t xml:space="preserve">Fehlendes Orpha_Kode  </t>
         </is>
       </c>
     </row>
@@ -742,19 +619,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="C2">
-        <v>99.89</v>
+        <v>99.72</v>
       </c>
       <c r="D2">
-        <v>94.44</v>
+        <v>90.62</v>
       </c>
       <c r="E2">
-        <v>96.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>382</v>

--- a/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
+++ b/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,6 +608,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>icdRd_no_ext</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>pt_no</t>
         </is>
       </c>
@@ -634,6 +639,9 @@
         <v>32</v>
       </c>
       <c r="G2">
+        <v>297</v>
+      </c>
+      <c r="H2">
         <v>382</v>
       </c>
     </row>

--- a/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
+++ b/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,76 +375,56 @@
           <t>Orpha_Kode</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>dq_msg</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P_19285751</t>
+          <t>P_20085751</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>E84.0</t>
+          <t>G70</t>
         </is>
       </c>
       <c r="C2">
-        <v>587</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relation  E84.0 - 587  ist im BfArM nicht vorhanden </t>
-        </is>
+        <v>586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P_19285753</t>
+          <t>P_20085752</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E84.80</t>
+          <t>G70</t>
         </is>
       </c>
       <c r="C3">
-        <v>587</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relation  E84.80 - 587  ist im BfArM nicht vorhanden </t>
-        </is>
+        <v>589</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P_19285754</t>
+          <t>P_20085754</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E85.0</t>
+          <t>E84.80</t>
         </is>
       </c>
       <c r="C4">
-        <v>586</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relation  E85.0 - 586  ist im BfArM nicht vorhanden </t>
-        </is>
+        <v>588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P_19285755</t>
+          <t>P_20085755</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -455,16 +435,11 @@
       <c r="C5">
         <v>325</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relation  E75.2 - 325  ist im BfArM nicht vorhanden </t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P_19285756</t>
+          <t>P_20085756</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -475,90 +450,121 @@
       <c r="C6">
         <v>320</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relation  E75.2 - 320  ist im BfArM nicht vorhanden </t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P_19285757</t>
+          <t>P_20085757</t>
         </is>
       </c>
       <c r="C7">
         <v>586</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fehlendes ICD10 Code  </t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P_19285758</t>
+          <t>P_20085758</t>
         </is>
       </c>
       <c r="C8">
         <v>587</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orpha Kodierung  587  ist im BfArM-Mapping nicht enthalten Fehlendes ICD10 Code  </t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P_19285759</t>
+          <t>P_20085759</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>E75.2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ICD10-Kodierung nicht eindeutig E75.2 Fehlendes Orpha_Kode  </t>
+          <t>E84.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P_19285759</t>
+          <t>P_20085760</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>E84.0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fehlendes Orpha_Kode  </t>
+          <t>D45</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P_19285759</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>D45</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fehlendes Orpha_Kode  </t>
+          <t>P_20085761</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P_20085762</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>E66.89</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P_20085764</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>E66.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P_20085764</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>E75.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P_20085767</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>E85.0</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P_20085770</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>J09</t>
         </is>
       </c>
     </row>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -616,6 +622,11 @@
           <t>pt_no</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>case_no</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -624,25 +635,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.28</v>
+        <v>15.47</v>
       </c>
       <c r="C2">
-        <v>99.72</v>
+        <v>84.53</v>
       </c>
       <c r="D2">
-        <v>90.62</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="E2">
-        <v>98.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="H2">
-        <v>382</v>
+        <v>395</v>
+      </c>
+      <c r="I2">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +666,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -747,10 +761,10 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -809,6 +823,35 @@
       </c>
       <c r="G5">
         <v>66.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anderson‐Fabry‐Krankheit</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>324</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>E75.2</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
+++ b/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -367,7 +367,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ICD_Primärkode</t>
+          <t>ICD_primaerkode</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -554,18 +554,6 @@
       </c>
       <c r="C15">
         <v>586</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>P_20085770</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>J09</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -609,12 +597,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>icdRd_no</t>
+          <t>K2_icdRd_no</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>icdRd_no_ext</t>
+          <t>K3_rd_no</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -644,13 +632,13 @@
         <v>88.23999999999999</v>
       </c>
       <c r="E2">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="F2">
         <v>34</v>
       </c>
       <c r="G2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H2">
         <v>395</v>
@@ -690,7 +678,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ICD_Primärkode</t>
+          <t>ICD_primaerkode</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">

--- a/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
+++ b/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
@@ -597,12 +597,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>K2_icdRd_no</t>
+          <t>icdRd_no</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>K3_rd_no</t>
+          <t>rd_no</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">

--- a/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
+++ b/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
@@ -632,7 +632,7 @@
         <v>88.23999999999999</v>
       </c>
       <c r="E2">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F2">
         <v>34</v>

--- a/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
+++ b/examples/Data/Export/Datenqualitätsreport_ CORD_TestData _Extended .xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -367,10 +367,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Aufnahmenummer</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>ICD_primaerkode</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Orpha_Kode</t>
         </is>
@@ -384,10 +389,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>F_101645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>G70</t>
         </is>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>586</v>
       </c>
     </row>
@@ -399,10 +409,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>F_101646</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>G70</t>
         </is>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>589</v>
       </c>
     </row>
@@ -414,10 +429,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>F_101648</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>E84.80</t>
         </is>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>588</v>
       </c>
     </row>
@@ -429,10 +449,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>F_101649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>E75.2</t>
         </is>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>325</v>
       </c>
     </row>
@@ -444,10 +469,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>F_101650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>E75.2</t>
         </is>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>320</v>
       </c>
     </row>
@@ -457,7 +487,12 @@
           <t>P_20085757</t>
         </is>
       </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F_101651</t>
+        </is>
+      </c>
+      <c r="D7">
         <v>586</v>
       </c>
     </row>
@@ -467,7 +502,12 @@
           <t>P_20085758</t>
         </is>
       </c>
-      <c r="C8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F_101651</t>
+        </is>
+      </c>
+      <c r="D8">
         <v>587</v>
       </c>
     </row>
@@ -479,6 +519,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>F_101653</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>E84.0</t>
         </is>
       </c>
@@ -491,6 +536,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>F_101654</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>D45</t>
         </is>
       </c>
@@ -501,6 +551,11 @@
           <t>P_20085761</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F_101655</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -510,10 +565,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>F_101656</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>E66.89</t>
         </is>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>320</v>
       </c>
     </row>
@@ -525,6 +585,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>F_101757</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>E66.89</t>
         </is>
       </c>
@@ -537,6 +602,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>F_101658</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>E75.2</t>
         </is>
       </c>
@@ -549,10 +619,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>F_101660</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>E85.0</t>
         </is>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>586</v>
       </c>
     </row>
@@ -572,7 +647,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>basicItem</t>
+          <t>inst_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -619,14 +694,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>260123430-Dali</t>
         </is>
       </c>
       <c r="B2">
-        <v>15.47</v>
+        <v>3.13</v>
       </c>
       <c r="C2">
-        <v>84.53</v>
+        <v>96.87</v>
       </c>
       <c r="D2">
         <v>88.23999999999999</v>
